--- a/data/outputs/OR_elsevier/57.xlsx
+++ b/data/outputs/OR_elsevier/57.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS273"/>
+  <dimension ref="A1:BU273"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,16 @@
           <t>eid</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -933,6 +943,12 @@
           <t>2-s2.0-84937906751</t>
         </is>
       </c>
+      <c r="BT2" t="n">
+        <v>7569</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>127</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1146,6 +1162,12 @@
           <t>2-s2.0-84908430541</t>
         </is>
       </c>
+      <c r="BT3" t="n">
+        <v>4495</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>102</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1351,6 +1373,12 @@
           <t>2-s2.0-84907519106</t>
         </is>
       </c>
+      <c r="BT4" t="n">
+        <v>5043</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1568,6 +1596,12 @@
           <t>2-s2.0-84925292704</t>
         </is>
       </c>
+      <c r="BT5" t="n">
+        <v>2106</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>88</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1789,6 +1823,12 @@
           <t>2-s2.0-84933518861</t>
         </is>
       </c>
+      <c r="BT6" t="n">
+        <v>4087</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>79</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2010,6 +2050,12 @@
           <t>2-s2.0-84910139320</t>
         </is>
       </c>
+      <c r="BT7" t="n">
+        <v>3294</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>78</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2231,6 +2277,12 @@
           <t>2-s2.0-84923554089</t>
         </is>
       </c>
+      <c r="BT8" t="n">
+        <v>3786</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>89</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2447,6 +2499,12 @@
         <is>
           <t>2-s2.0-84937885018</t>
         </is>
+      </c>
+      <c r="BT9" t="n">
+        <v>6643</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="10">
@@ -2673,6 +2731,12 @@
           <t>2-s2.0-84923253511</t>
         </is>
       </c>
+      <c r="BT10" t="n">
+        <v>17253</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2878,6 +2942,12 @@
           <t>2-s2.0-84924061046</t>
         </is>
       </c>
+      <c r="BT11" t="n">
+        <v>2982</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3089,6 +3159,12 @@
           <t>2-s2.0-84949115150</t>
         </is>
       </c>
+      <c r="BT12" t="n">
+        <v>8386</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>88</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3313,6 +3389,12 @@
         <is>
           <t>2-s2.0-84935025909</t>
         </is>
+      </c>
+      <c r="BT13" t="n">
+        <v>5724</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="14">
@@ -3523,6 +3605,12 @@
           <t>2-s2.0-84934758985</t>
         </is>
       </c>
+      <c r="BT14" t="n">
+        <v>3372</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3742,6 +3830,12 @@
           <t>2-s2.0-84908439719</t>
         </is>
       </c>
+      <c r="BT15" t="n">
+        <v>23606</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3955,6 +4049,12 @@
           <t>2-s2.0-84939804438</t>
         </is>
       </c>
+      <c r="BT16" t="n">
+        <v>2593</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4173,6 +4273,12 @@
         <is>
           <t>2-s2.0-84937846845</t>
         </is>
+      </c>
+      <c r="BT17" t="n">
+        <v>4572</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="18">
@@ -4395,6 +4501,12 @@
           <t>2-s2.0-84908463816</t>
         </is>
       </c>
+      <c r="BT18" t="n">
+        <v>2363</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4604,6 +4716,12 @@
           <t>2-s2.0-84910638226</t>
         </is>
       </c>
+      <c r="BT19" t="n">
+        <v>2705</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4825,6 +4943,12 @@
           <t>2-s2.0-84911874779</t>
         </is>
       </c>
+      <c r="BT20" t="n">
+        <v>2615</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5036,6 +5160,12 @@
           <t>2-s2.0-84961342778</t>
         </is>
       </c>
+      <c r="BT21" t="n">
+        <v>8121</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5257,6 +5387,12 @@
           <t>2-s2.0-84921991318</t>
         </is>
       </c>
+      <c r="BT22" t="n">
+        <v>2542</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5474,6 +5610,12 @@
           <t>2-s2.0-84924692500</t>
         </is>
       </c>
+      <c r="BT23" t="n">
+        <v>4169</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5691,6 +5833,12 @@
           <t>2-s2.0-84910134100</t>
         </is>
       </c>
+      <c r="BT24" t="n">
+        <v>3364</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5900,6 +6048,12 @@
           <t>2-s2.0-84939261464</t>
         </is>
       </c>
+      <c r="BT25" t="n">
+        <v>1642</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6109,6 +6263,12 @@
           <t>2-s2.0-84939563398</t>
         </is>
       </c>
+      <c r="BT26" t="n">
+        <v>2452</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6314,6 +6474,12 @@
           <t>2-s2.0-84908363029</t>
         </is>
       </c>
+      <c r="BT27" t="n">
+        <v>2289</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6527,6 +6693,12 @@
           <t>2-s2.0-84921640460</t>
         </is>
       </c>
+      <c r="BT28" t="n">
+        <v>2271</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6744,6 +6916,12 @@
           <t>2-s2.0-84940383871</t>
         </is>
       </c>
+      <c r="BT29" t="n">
+        <v>4370</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6957,6 +7135,12 @@
           <t>2-s2.0-84949116401</t>
         </is>
       </c>
+      <c r="BT30" t="n">
+        <v>2467</v>
+      </c>
+      <c r="BU30" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7162,6 +7346,12 @@
           <t>2-s2.0-84913591548</t>
         </is>
       </c>
+      <c r="BT31" t="n">
+        <v>1612</v>
+      </c>
+      <c r="BU31" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7367,6 +7557,12 @@
           <t>2-s2.0-84935833732</t>
         </is>
       </c>
+      <c r="BT32" t="n">
+        <v>1160</v>
+      </c>
+      <c r="BU32" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7580,6 +7776,12 @@
           <t>2-s2.0-84908542523</t>
         </is>
       </c>
+      <c r="BT33" t="n">
+        <v>2167</v>
+      </c>
+      <c r="BU33" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7789,6 +7991,12 @@
           <t>2-s2.0-84939620897</t>
         </is>
       </c>
+      <c r="BT34" t="n">
+        <v>4477</v>
+      </c>
+      <c r="BU34" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -8007,6 +8215,12 @@
         <is>
           <t>2-s2.0-84937903481</t>
         </is>
+      </c>
+      <c r="BT35" t="n">
+        <v>5379</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="36">
@@ -8221,6 +8435,12 @@
           <t>2-s2.0-84927622940</t>
         </is>
       </c>
+      <c r="BT36" t="n">
+        <v>2315</v>
+      </c>
+      <c r="BU36" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8434,6 +8654,12 @@
           <t>2-s2.0-84921985689</t>
         </is>
       </c>
+      <c r="BT37" t="n">
+        <v>2187</v>
+      </c>
+      <c r="BU37" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8651,6 +8877,12 @@
           <t>2-s2.0-84908374972</t>
         </is>
       </c>
+      <c r="BT38" t="n">
+        <v>1992</v>
+      </c>
+      <c r="BU38" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8872,6 +9104,12 @@
           <t>2-s2.0-84930646545</t>
         </is>
       </c>
+      <c r="BT39" t="n">
+        <v>1893</v>
+      </c>
+      <c r="BU39" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -9093,6 +9331,12 @@
           <t>2-s2.0-84941578668</t>
         </is>
       </c>
+      <c r="BT40" t="n">
+        <v>1832</v>
+      </c>
+      <c r="BU40" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9315,6 +9559,12 @@
         <is>
           <t>2-s2.0-84937914484</t>
         </is>
+      </c>
+      <c r="BT41" t="n">
+        <v>2268</v>
+      </c>
+      <c r="BU41" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="42">
@@ -9527,6 +9777,12 @@
           <t>2-s2.0-84924777744</t>
         </is>
       </c>
+      <c r="BT42" t="n">
+        <v>3464</v>
+      </c>
+      <c r="BU42" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9744,6 +10000,12 @@
           <t>2-s2.0-84907535613</t>
         </is>
       </c>
+      <c r="BT43" t="n">
+        <v>1561</v>
+      </c>
+      <c r="BU43" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9967,6 +10229,12 @@
           <t>2-s2.0-84938388613</t>
         </is>
       </c>
+      <c r="BT44" t="n">
+        <v>9797</v>
+      </c>
+      <c r="BU44" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -10184,6 +10452,12 @@
           <t>2-s2.0-84929332879</t>
         </is>
       </c>
+      <c r="BT45" t="n">
+        <v>2652</v>
+      </c>
+      <c r="BU45" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10401,6 +10675,12 @@
           <t>2-s2.0-84929643460</t>
         </is>
       </c>
+      <c r="BT46" t="n">
+        <v>1910</v>
+      </c>
+      <c r="BU46" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10625,6 +10905,12 @@
         <is>
           <t>2-s2.0-84925625625</t>
         </is>
+      </c>
+      <c r="BT47" t="n">
+        <v>3249</v>
+      </c>
+      <c r="BU47" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="48">
@@ -10843,6 +11129,12 @@
           <t>2-s2.0-84930665434</t>
         </is>
       </c>
+      <c r="BT48" t="n">
+        <v>1147</v>
+      </c>
+      <c r="BU48" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -11058,6 +11350,12 @@
           <t>2-s2.0-84934978238</t>
         </is>
       </c>
+      <c r="BT49" t="n">
+        <v>1560</v>
+      </c>
+      <c r="BU49" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11275,6 +11573,12 @@
           <t>2-s2.0-84923230928</t>
         </is>
       </c>
+      <c r="BT50" t="n">
+        <v>2556</v>
+      </c>
+      <c r="BU50" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11488,6 +11792,12 @@
           <t>2-s2.0-84922698811</t>
         </is>
       </c>
+      <c r="BT51" t="n">
+        <v>1365</v>
+      </c>
+      <c r="BU51" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11693,6 +12003,12 @@
           <t>2-s2.0-84918549082</t>
         </is>
       </c>
+      <c r="BT52" t="n">
+        <v>1461</v>
+      </c>
+      <c r="BU52" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11905,6 +12221,12 @@
         <is>
           <t>2-s2.0-84939571438</t>
         </is>
+      </c>
+      <c r="BT53" t="n">
+        <v>2055</v>
+      </c>
+      <c r="BU53" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="54">
@@ -12133,6 +12455,12 @@
           <t>2-s2.0-84936862412</t>
         </is>
       </c>
+      <c r="BT54" t="n">
+        <v>2141</v>
+      </c>
+      <c r="BU54" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -12350,6 +12678,12 @@
           <t>2-s2.0-84934989960</t>
         </is>
       </c>
+      <c r="BT55" t="n">
+        <v>2013</v>
+      </c>
+      <c r="BU55" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12571,6 +12905,12 @@
           <t>2-s2.0-84936851841</t>
         </is>
       </c>
+      <c r="BT56" t="n">
+        <v>2716</v>
+      </c>
+      <c r="BU56" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12776,6 +13116,12 @@
           <t>2-s2.0-84924028361</t>
         </is>
       </c>
+      <c r="BT57" t="n">
+        <v>1701</v>
+      </c>
+      <c r="BU57" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12997,6 +13343,12 @@
           <t>2-s2.0-84937544376</t>
         </is>
       </c>
+      <c r="BT58" t="n">
+        <v>8799</v>
+      </c>
+      <c r="BU58" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -13218,6 +13570,12 @@
           <t>2-s2.0-84934984829</t>
         </is>
       </c>
+      <c r="BT59" t="n">
+        <v>1797</v>
+      </c>
+      <c r="BU59" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -13439,6 +13797,12 @@
           <t>2-s2.0-84910018753</t>
         </is>
       </c>
+      <c r="BT60" t="n">
+        <v>5292</v>
+      </c>
+      <c r="BU60" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13652,6 +14016,12 @@
           <t>2-s2.0-84910008009</t>
         </is>
       </c>
+      <c r="BT61" t="n">
+        <v>2347</v>
+      </c>
+      <c r="BU61" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13861,6 +14231,12 @@
           <t>2-s2.0-84907524418</t>
         </is>
       </c>
+      <c r="BT62" t="n">
+        <v>2963</v>
+      </c>
+      <c r="BU62" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -14088,6 +14464,12 @@
           <t>2-s2.0-84931262239</t>
         </is>
       </c>
+      <c r="BT63" t="n">
+        <v>9705</v>
+      </c>
+      <c r="BU63" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -14309,6 +14691,12 @@
           <t>2-s2.0-84928232367</t>
         </is>
       </c>
+      <c r="BT64" t="n">
+        <v>1364</v>
+      </c>
+      <c r="BU64" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -14518,6 +14906,12 @@
           <t>2-s2.0-84924218672</t>
         </is>
       </c>
+      <c r="BT65" t="n">
+        <v>1987</v>
+      </c>
+      <c r="BU65" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -14723,6 +15117,12 @@
           <t>2-s2.0-84920964385</t>
         </is>
       </c>
+      <c r="BT66" t="n">
+        <v>994</v>
+      </c>
+      <c r="BU66" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -14948,6 +15348,12 @@
           <t>2-s2.0-84908439630</t>
         </is>
       </c>
+      <c r="BT67" t="n">
+        <v>1796</v>
+      </c>
+      <c r="BU67" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -15163,6 +15569,12 @@
           <t>2-s2.0-84938353132</t>
         </is>
       </c>
+      <c r="BT68" t="n">
+        <v>13668</v>
+      </c>
+      <c r="BU68" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -15375,6 +15787,12 @@
         <is>
           <t>2-s2.0-84939259800</t>
         </is>
+      </c>
+      <c r="BT69" t="n">
+        <v>1344</v>
+      </c>
+      <c r="BU69" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="70">
@@ -15577,6 +15995,12 @@
           <t>2-s2.0-84921353766</t>
         </is>
       </c>
+      <c r="BT70" t="n">
+        <v>2348</v>
+      </c>
+      <c r="BU70" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -15790,6 +16214,12 @@
           <t>2-s2.0-84919760814</t>
         </is>
       </c>
+      <c r="BT71" t="n">
+        <v>1036</v>
+      </c>
+      <c r="BU71" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -15999,6 +16429,12 @@
           <t>2-s2.0-84912124928</t>
         </is>
       </c>
+      <c r="BT72" t="n">
+        <v>1221</v>
+      </c>
+      <c r="BU72" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -16204,6 +16640,12 @@
           <t>2-s2.0-84910017260</t>
         </is>
       </c>
+      <c r="BT73" t="n">
+        <v>1057</v>
+      </c>
+      <c r="BU73" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -16425,6 +16867,12 @@
           <t>2-s2.0-84907525355</t>
         </is>
       </c>
+      <c r="BT74" t="n">
+        <v>1565</v>
+      </c>
+      <c r="BU74" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -16649,6 +17097,12 @@
         <is>
           <t>2-s2.0-84939566547</t>
         </is>
+      </c>
+      <c r="BT75" t="n">
+        <v>1772</v>
+      </c>
+      <c r="BU75" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="76">
@@ -16863,6 +17317,12 @@
           <t>2-s2.0-84934964324</t>
         </is>
       </c>
+      <c r="BT76" t="n">
+        <v>1337</v>
+      </c>
+      <c r="BU76" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -17076,6 +17536,12 @@
           <t>2-s2.0-84923253598</t>
         </is>
       </c>
+      <c r="BT77" t="n">
+        <v>3356</v>
+      </c>
+      <c r="BU77" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -17293,6 +17759,12 @@
           <t>2-s2.0-84921416251</t>
         </is>
       </c>
+      <c r="BT78" t="n">
+        <v>3056</v>
+      </c>
+      <c r="BU78" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -17506,6 +17978,12 @@
           <t>2-s2.0-84920472758</t>
         </is>
       </c>
+      <c r="BT79" t="n">
+        <v>1296</v>
+      </c>
+      <c r="BU79" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -17711,6 +18189,12 @@
           <t>2-s2.0-84908431339</t>
         </is>
       </c>
+      <c r="BT80" t="n">
+        <v>2428</v>
+      </c>
+      <c r="BU80" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -17920,6 +18404,12 @@
           <t>2-s2.0-84907776044</t>
         </is>
       </c>
+      <c r="BT81" t="n">
+        <v>1094</v>
+      </c>
+      <c r="BU81" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -18133,6 +18623,12 @@
           <t>2-s2.0-84907551341</t>
         </is>
       </c>
+      <c r="BT82" t="n">
+        <v>2010</v>
+      </c>
+      <c r="BU82" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -18350,6 +18846,12 @@
           <t>2-s2.0-84937548531</t>
         </is>
       </c>
+      <c r="BT83" t="n">
+        <v>1745</v>
+      </c>
+      <c r="BU83" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -18567,6 +19069,12 @@
           <t>2-s2.0-84941336457</t>
         </is>
       </c>
+      <c r="BT84" t="n">
+        <v>1177</v>
+      </c>
+      <c r="BU84" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -18784,6 +19292,12 @@
           <t>2-s2.0-84938378367</t>
         </is>
       </c>
+      <c r="BT85" t="n">
+        <v>1091</v>
+      </c>
+      <c r="BU85" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -19000,6 +19514,12 @@
         <is>
           <t>2-s2.0-84939563400</t>
         </is>
+      </c>
+      <c r="BT86" t="n">
+        <v>1339</v>
+      </c>
+      <c r="BU86" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="87">
@@ -19214,6 +19734,12 @@
           <t>2-s2.0-84934973751</t>
         </is>
       </c>
+      <c r="BT87" t="n">
+        <v>1070</v>
+      </c>
+      <c r="BU87" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -19419,6 +19945,12 @@
           <t>2-s2.0-84926305798</t>
         </is>
       </c>
+      <c r="BT88" t="n">
+        <v>1299</v>
+      </c>
+      <c r="BU88" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -19632,6 +20164,12 @@
           <t>2-s2.0-84928721230</t>
         </is>
       </c>
+      <c r="BT89" t="n">
+        <v>1695</v>
+      </c>
+      <c r="BU89" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -19853,6 +20391,12 @@
           <t>2-s2.0-84910127613</t>
         </is>
       </c>
+      <c r="BT90" t="n">
+        <v>2768</v>
+      </c>
+      <c r="BU90" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -20066,6 +20610,12 @@
           <t>2-s2.0-84908407195</t>
         </is>
       </c>
+      <c r="BT91" t="n">
+        <v>1848</v>
+      </c>
+      <c r="BU91" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -20283,6 +20833,12 @@
           <t>2-s2.0-84929144353</t>
         </is>
       </c>
+      <c r="BT92" t="n">
+        <v>1248</v>
+      </c>
+      <c r="BU92" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -20496,6 +21052,12 @@
           <t>2-s2.0-84933525824</t>
         </is>
       </c>
+      <c r="BT93" t="n">
+        <v>1337</v>
+      </c>
+      <c r="BU93" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -20709,6 +21271,12 @@
           <t>2-s2.0-84934938612</t>
         </is>
       </c>
+      <c r="BT94" t="n">
+        <v>1808</v>
+      </c>
+      <c r="BU94" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -20926,6 +21494,12 @@
           <t>2-s2.0-84928744331</t>
         </is>
       </c>
+      <c r="BT95" t="n">
+        <v>1022</v>
+      </c>
+      <c r="BU95" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -21139,6 +21713,12 @@
           <t>2-s2.0-84940385534</t>
         </is>
       </c>
+      <c r="BT96" t="n">
+        <v>2063</v>
+      </c>
+      <c r="BU96" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -21352,6 +21932,12 @@
           <t>2-s2.0-84923229783</t>
         </is>
       </c>
+      <c r="BT97" t="n">
+        <v>1582</v>
+      </c>
+      <c r="BU97" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -21561,6 +22147,12 @@
           <t>2-s2.0-84913529830</t>
         </is>
       </c>
+      <c r="BT98" t="n">
+        <v>1085</v>
+      </c>
+      <c r="BU98" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -21774,6 +22366,12 @@
           <t>2-s2.0-84907524893</t>
         </is>
       </c>
+      <c r="BT99" t="n">
+        <v>2289</v>
+      </c>
+      <c r="BU99" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -21983,6 +22581,12 @@
           <t>2-s2.0-84940183762</t>
         </is>
       </c>
+      <c r="BT100" t="n">
+        <v>1650</v>
+      </c>
+      <c r="BU100" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -22196,6 +22800,12 @@
           <t>2-s2.0-84935020703</t>
         </is>
       </c>
+      <c r="BT101" t="n">
+        <v>622</v>
+      </c>
+      <c r="BU101" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -22413,6 +23023,12 @@
           <t>2-s2.0-84933500326</t>
         </is>
       </c>
+      <c r="BT102" t="n">
+        <v>748</v>
+      </c>
+      <c r="BU102" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -22622,6 +23238,12 @@
           <t>2-s2.0-84936765529</t>
         </is>
       </c>
+      <c r="BT103" t="n">
+        <v>1664</v>
+      </c>
+      <c r="BU103" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -22823,6 +23445,12 @@
           <t>2-s2.0-84926660615</t>
         </is>
       </c>
+      <c r="BT104" t="n">
+        <v>934</v>
+      </c>
+      <c r="BU104" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -23028,6 +23656,12 @@
           <t>2-s2.0-84949796703</t>
         </is>
       </c>
+      <c r="BT105" t="n">
+        <v>796</v>
+      </c>
+      <c r="BU105" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -23241,6 +23875,12 @@
           <t>2-s2.0-84925308746</t>
         </is>
       </c>
+      <c r="BT106" t="n">
+        <v>1054</v>
+      </c>
+      <c r="BU106" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -23450,6 +24090,12 @@
           <t>2-s2.0-84922728731</t>
         </is>
       </c>
+      <c r="BT107" t="n">
+        <v>1441</v>
+      </c>
+      <c r="BU107" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -23671,6 +24317,12 @@
           <t>2-s2.0-84922496381</t>
         </is>
       </c>
+      <c r="BT108" t="n">
+        <v>1233</v>
+      </c>
+      <c r="BU108" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -23892,6 +24544,12 @@
           <t>2-s2.0-84922221581</t>
         </is>
       </c>
+      <c r="BT109" t="n">
+        <v>1384</v>
+      </c>
+      <c r="BU109" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -24113,6 +24771,12 @@
           <t>2-s2.0-84919682237</t>
         </is>
       </c>
+      <c r="BT110" t="n">
+        <v>1358</v>
+      </c>
+      <c r="BU110" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -24318,6 +24982,12 @@
           <t>2-s2.0-84921044349</t>
         </is>
       </c>
+      <c r="BT111" t="n">
+        <v>540</v>
+      </c>
+      <c r="BU111" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -24523,6 +25193,12 @@
           <t>2-s2.0-84907494968</t>
         </is>
       </c>
+      <c r="BT112" t="n">
+        <v>1898</v>
+      </c>
+      <c r="BU112" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -24740,6 +25416,12 @@
           <t>2-s2.0-84908408963</t>
         </is>
       </c>
+      <c r="BT113" t="n">
+        <v>1070</v>
+      </c>
+      <c r="BU113" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -24961,6 +25643,12 @@
           <t>2-s2.0-84935008180</t>
         </is>
       </c>
+      <c r="BT114" t="n">
+        <v>1755</v>
+      </c>
+      <c r="BU114" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -25182,6 +25870,12 @@
           <t>2-s2.0-84934996750</t>
         </is>
       </c>
+      <c r="BT115" t="n">
+        <v>1674</v>
+      </c>
+      <c r="BU115" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -25395,6 +26089,12 @@
           <t>2-s2.0-84929304493</t>
         </is>
       </c>
+      <c r="BT116" t="n">
+        <v>2042</v>
+      </c>
+      <c r="BU116" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -25616,6 +26316,12 @@
           <t>2-s2.0-84933526382</t>
         </is>
       </c>
+      <c r="BT117" t="n">
+        <v>1369</v>
+      </c>
+      <c r="BU117" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -25825,6 +26531,12 @@
           <t>2-s2.0-84926286385</t>
         </is>
       </c>
+      <c r="BT118" t="n">
+        <v>2039</v>
+      </c>
+      <c r="BU118" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -26038,6 +26750,12 @@
           <t>2-s2.0-84927127823</t>
         </is>
       </c>
+      <c r="BT119" t="n">
+        <v>1301</v>
+      </c>
+      <c r="BU119" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -26243,6 +26961,12 @@
           <t>2-s2.0-84925300139</t>
         </is>
       </c>
+      <c r="BT120" t="n">
+        <v>1087</v>
+      </c>
+      <c r="BU120" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -26452,6 +27176,12 @@
           <t>2-s2.0-84919797822</t>
         </is>
       </c>
+      <c r="BT121" t="n">
+        <v>1223</v>
+      </c>
+      <c r="BU121" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -26665,6 +27395,12 @@
           <t>2-s2.0-84919830491</t>
         </is>
       </c>
+      <c r="BT122" t="n">
+        <v>1543</v>
+      </c>
+      <c r="BU122" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -26878,6 +27614,12 @@
           <t>2-s2.0-84908426287</t>
         </is>
       </c>
+      <c r="BT123" t="n">
+        <v>916</v>
+      </c>
+      <c r="BU123" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -27091,6 +27833,12 @@
           <t>2-s2.0-84908424324</t>
         </is>
       </c>
+      <c r="BT124" t="n">
+        <v>552</v>
+      </c>
+      <c r="BU124" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -27310,6 +28058,12 @@
           <t>2-s2.0-84929492318</t>
         </is>
       </c>
+      <c r="BT125" t="n">
+        <v>8648</v>
+      </c>
+      <c r="BU125" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -27535,6 +28289,12 @@
           <t>2-s2.0-84929626356</t>
         </is>
       </c>
+      <c r="BT126" t="n">
+        <v>2426</v>
+      </c>
+      <c r="BU126" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -27740,6 +28500,12 @@
           <t>2-s2.0-84927726342</t>
         </is>
       </c>
+      <c r="BT127" t="n">
+        <v>811</v>
+      </c>
+      <c r="BU127" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -27953,6 +28719,12 @@
           <t>2-s2.0-84923221456</t>
         </is>
       </c>
+      <c r="BT128" t="n">
+        <v>2183</v>
+      </c>
+      <c r="BU128" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -28170,6 +28942,12 @@
           <t>2-s2.0-84921286148</t>
         </is>
       </c>
+      <c r="BT129" t="n">
+        <v>2400</v>
+      </c>
+      <c r="BU129" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -28375,6 +29153,12 @@
           <t>2-s2.0-84907542595</t>
         </is>
       </c>
+      <c r="BT130" t="n">
+        <v>1964</v>
+      </c>
+      <c r="BU130" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -28596,6 +29380,12 @@
           <t>2-s2.0-84908431670</t>
         </is>
       </c>
+      <c r="BT131" t="n">
+        <v>1518</v>
+      </c>
+      <c r="BU131" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -28812,6 +29602,12 @@
         <is>
           <t>2-s2.0-84939256890</t>
         </is>
+      </c>
+      <c r="BT132" t="n">
+        <v>3079</v>
+      </c>
+      <c r="BU132" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="133">
@@ -29026,6 +29822,12 @@
           <t>2-s2.0-84934969018</t>
         </is>
       </c>
+      <c r="BT133" t="n">
+        <v>582</v>
+      </c>
+      <c r="BU133" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -29237,6 +30039,12 @@
           <t>2-s2.0-84925397617</t>
         </is>
       </c>
+      <c r="BT134" t="n">
+        <v>1328</v>
+      </c>
+      <c r="BU134" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -29463,6 +30271,12 @@
         <is>
           <t>2-s2.0-84937835002</t>
         </is>
+      </c>
+      <c r="BT135" t="n">
+        <v>1967</v>
+      </c>
+      <c r="BU135" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="136">
@@ -29681,6 +30495,12 @@
           <t>2-s2.0-84928227196</t>
         </is>
       </c>
+      <c r="BT136" t="n">
+        <v>1013</v>
+      </c>
+      <c r="BU136" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -29886,6 +30706,12 @@
           <t>2-s2.0-84926479858</t>
         </is>
       </c>
+      <c r="BT137" t="n">
+        <v>2082</v>
+      </c>
+      <c r="BU137" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -30107,6 +30933,12 @@
           <t>2-s2.0-84925853901</t>
         </is>
       </c>
+      <c r="BT138" t="n">
+        <v>1483</v>
+      </c>
+      <c r="BU138" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -30312,6 +31144,12 @@
           <t>2-s2.0-84925004196</t>
         </is>
       </c>
+      <c r="BT139" t="n">
+        <v>784</v>
+      </c>
+      <c r="BU139" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -30525,6 +31363,12 @@
           <t>2-s2.0-84920999525</t>
         </is>
       </c>
+      <c r="BT140" t="n">
+        <v>1603</v>
+      </c>
+      <c r="BU140" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -30744,6 +31588,12 @@
           <t>2-s2.0-84914132657</t>
         </is>
       </c>
+      <c r="BT141" t="n">
+        <v>2811</v>
+      </c>
+      <c r="BU141" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -30957,6 +31807,12 @@
           <t>2-s2.0-84918819168</t>
         </is>
       </c>
+      <c r="BT142" t="n">
+        <v>1481</v>
+      </c>
+      <c r="BU142" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -31170,6 +32026,12 @@
           <t>2-s2.0-84910151235</t>
         </is>
       </c>
+      <c r="BT143" t="n">
+        <v>2893</v>
+      </c>
+      <c r="BU143" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -31375,6 +32237,12 @@
           <t>2-s2.0-84938861713</t>
         </is>
       </c>
+      <c r="BT144" t="n">
+        <v>858</v>
+      </c>
+      <c r="BU144" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -31600,6 +32468,12 @@
           <t>2-s2.0-84938903472</t>
         </is>
       </c>
+      <c r="BT145" t="n">
+        <v>1144</v>
+      </c>
+      <c r="BU145" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -31813,6 +32687,12 @@
           <t>2-s2.0-84940214016</t>
         </is>
       </c>
+      <c r="BT146" t="n">
+        <v>705</v>
+      </c>
+      <c r="BU146" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -32018,6 +32898,12 @@
           <t>2-s2.0-84953874800</t>
         </is>
       </c>
+      <c r="BT147" t="n">
+        <v>813</v>
+      </c>
+      <c r="BU147" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -32235,6 +33121,12 @@
           <t>2-s2.0-84929627806</t>
         </is>
       </c>
+      <c r="BT148" t="n">
+        <v>1302</v>
+      </c>
+      <c r="BU148" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -32456,6 +33348,12 @@
           <t>2-s2.0-84934956896</t>
         </is>
       </c>
+      <c r="BT149" t="n">
+        <v>1525</v>
+      </c>
+      <c r="BU149" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -32677,6 +33575,12 @@
           <t>2-s2.0-84931269059</t>
         </is>
       </c>
+      <c r="BT150" t="n">
+        <v>871</v>
+      </c>
+      <c r="BU150" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -32904,6 +33808,12 @@
           <t>2-s2.0-84925777607</t>
         </is>
       </c>
+      <c r="BT151" t="n">
+        <v>866</v>
+      </c>
+      <c r="BU151" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -33117,6 +34027,12 @@
           <t>2-s2.0-84925426164</t>
         </is>
       </c>
+      <c r="BT152" t="n">
+        <v>687</v>
+      </c>
+      <c r="BU152" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -33330,6 +34246,12 @@
           <t>2-s2.0-84922722701</t>
         </is>
       </c>
+      <c r="BT153" t="n">
+        <v>4005</v>
+      </c>
+      <c r="BU153" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -33539,6 +34461,12 @@
           <t>2-s2.0-84922507907</t>
         </is>
       </c>
+      <c r="BT154" t="n">
+        <v>846</v>
+      </c>
+      <c r="BU154" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -33752,6 +34680,12 @@
           <t>2-s2.0-84914162811</t>
         </is>
       </c>
+      <c r="BT155" t="n">
+        <v>2084</v>
+      </c>
+      <c r="BU155" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -33965,6 +34899,12 @@
           <t>2-s2.0-84908374439</t>
         </is>
       </c>
+      <c r="BT156" t="n">
+        <v>4043</v>
+      </c>
+      <c r="BU156" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -34174,6 +35114,12 @@
           <t>2-s2.0-84910106842</t>
         </is>
       </c>
+      <c r="BT157" t="n">
+        <v>808</v>
+      </c>
+      <c r="BU157" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -34387,6 +35333,12 @@
           <t>2-s2.0-84907542980</t>
         </is>
       </c>
+      <c r="BT158" t="n">
+        <v>1141</v>
+      </c>
+      <c r="BU158" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -34592,6 +35544,12 @@
           <t>2-s2.0-84939172864</t>
         </is>
       </c>
+      <c r="BT159" t="n">
+        <v>1126</v>
+      </c>
+      <c r="BU159" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -34809,6 +35767,12 @@
           <t>2-s2.0-84938352485</t>
         </is>
       </c>
+      <c r="BT160" t="n">
+        <v>1129</v>
+      </c>
+      <c r="BU160" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -35030,6 +35994,12 @@
           <t>2-s2.0-84927740085</t>
         </is>
       </c>
+      <c r="BT161" t="n">
+        <v>725</v>
+      </c>
+      <c r="BU161" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -35235,6 +36205,12 @@
           <t>2-s2.0-84929121505</t>
         </is>
       </c>
+      <c r="BT162" t="n">
+        <v>2581</v>
+      </c>
+      <c r="BU162" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -35456,6 +36432,12 @@
           <t>2-s2.0-84929104277</t>
         </is>
       </c>
+      <c r="BT163" t="n">
+        <v>4092</v>
+      </c>
+      <c r="BU163" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -35665,6 +36647,12 @@
           <t>2-s2.0-84922353967</t>
         </is>
       </c>
+      <c r="BT164" t="n">
+        <v>2099</v>
+      </c>
+      <c r="BU164" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -35878,6 +36866,12 @@
           <t>2-s2.0-84913553376</t>
         </is>
       </c>
+      <c r="BT165" t="n">
+        <v>797</v>
+      </c>
+      <c r="BU165" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -36087,6 +37081,12 @@
           <t>2-s2.0-84907510540</t>
         </is>
       </c>
+      <c r="BT166" t="n">
+        <v>1240</v>
+      </c>
+      <c r="BU166" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -36300,6 +37300,12 @@
           <t>2-s2.0-84939213938</t>
         </is>
       </c>
+      <c r="BT167" t="n">
+        <v>925</v>
+      </c>
+      <c r="BU167" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -36524,6 +37530,12 @@
         <is>
           <t>2-s2.0-84937846113</t>
         </is>
+      </c>
+      <c r="BT168" t="n">
+        <v>2168</v>
+      </c>
+      <c r="BU168" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="169">
@@ -36726,6 +37738,12 @@
           <t>2-s2.0-84937829395</t>
         </is>
       </c>
+      <c r="BT169" t="n">
+        <v>1889</v>
+      </c>
+      <c r="BU169" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -36950,6 +37968,12 @@
         <is>
           <t>2-s2.0-84937913238</t>
         </is>
+      </c>
+      <c r="BT170" t="n">
+        <v>2107</v>
+      </c>
+      <c r="BU170" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="171">
@@ -37172,6 +38196,12 @@
           <t>2-s2.0-84926202109</t>
         </is>
       </c>
+      <c r="BT171" t="n">
+        <v>1195</v>
+      </c>
+      <c r="BU171" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -37385,6 +38415,12 @@
           <t>2-s2.0-84923658829</t>
         </is>
       </c>
+      <c r="BT172" t="n">
+        <v>738</v>
+      </c>
+      <c r="BU172" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -37598,6 +38634,12 @@
           <t>2-s2.0-84920401280</t>
         </is>
       </c>
+      <c r="BT173" t="n">
+        <v>945</v>
+      </c>
+      <c r="BU173" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -37819,6 +38861,12 @@
           <t>2-s2.0-84919941256</t>
         </is>
       </c>
+      <c r="BT174" t="n">
+        <v>964</v>
+      </c>
+      <c r="BU174" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -38032,6 +39080,12 @@
           <t>2-s2.0-84910148118</t>
         </is>
       </c>
+      <c r="BT175" t="n">
+        <v>575</v>
+      </c>
+      <c r="BU175" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -38237,6 +39291,12 @@
           <t>2-s2.0-84908517910</t>
         </is>
       </c>
+      <c r="BT176" t="n">
+        <v>957</v>
+      </c>
+      <c r="BU176" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -38458,6 +39518,12 @@
           <t>2-s2.0-84940376496</t>
         </is>
       </c>
+      <c r="BT177" t="n">
+        <v>1578</v>
+      </c>
+      <c r="BU177" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -38667,6 +39733,12 @@
           <t>2-s2.0-84939268867</t>
         </is>
       </c>
+      <c r="BT178" t="n">
+        <v>1082</v>
+      </c>
+      <c r="BU178" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -38868,6 +39940,12 @@
           <t>2-s2.0-84930645211</t>
         </is>
       </c>
+      <c r="BT179" t="n">
+        <v>2498</v>
+      </c>
+      <c r="BU179" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -39089,6 +40167,12 @@
           <t>2-s2.0-84936880915</t>
         </is>
       </c>
+      <c r="BT180" t="n">
+        <v>1146</v>
+      </c>
+      <c r="BU180" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -39298,6 +40382,12 @@
           <t>2-s2.0-84936862888</t>
         </is>
       </c>
+      <c r="BT181" t="n">
+        <v>995</v>
+      </c>
+      <c r="BU181" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -39514,6 +40604,12 @@
         <is>
           <t>2-s2.0-84937862179</t>
         </is>
+      </c>
+      <c r="BT182" t="n">
+        <v>2213</v>
+      </c>
+      <c r="BU182" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="183">
@@ -39724,6 +40820,12 @@
           <t>2-s2.0-84937937253</t>
         </is>
       </c>
+      <c r="BT183" t="n">
+        <v>2074</v>
+      </c>
+      <c r="BU183" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -39941,6 +41043,12 @@
           <t>2-s2.0-84913586554</t>
         </is>
       </c>
+      <c r="BT184" t="n">
+        <v>1206</v>
+      </c>
+      <c r="BU184" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -40154,6 +41262,12 @@
           <t>2-s2.0-84913558367</t>
         </is>
       </c>
+      <c r="BT185" t="n">
+        <v>699</v>
+      </c>
+      <c r="BU185" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -40355,6 +41469,12 @@
           <t>2-s2.0-84907501372</t>
         </is>
       </c>
+      <c r="BT186" t="n">
+        <v>908</v>
+      </c>
+      <c r="BU186" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -40568,6 +41688,12 @@
           <t>2-s2.0-84936817468</t>
         </is>
       </c>
+      <c r="BT187" t="n">
+        <v>1429</v>
+      </c>
+      <c r="BU187" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -40785,6 +41911,12 @@
           <t>2-s2.0-84929612751</t>
         </is>
       </c>
+      <c r="BT188" t="n">
+        <v>2370</v>
+      </c>
+      <c r="BU188" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -40998,6 +42130,12 @@
           <t>2-s2.0-84930617597</t>
         </is>
       </c>
+      <c r="BT189" t="n">
+        <v>2084</v>
+      </c>
+      <c r="BU189" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -41207,6 +42345,12 @@
           <t>2-s2.0-84912097594</t>
         </is>
       </c>
+      <c r="BT190" t="n">
+        <v>1309</v>
+      </c>
+      <c r="BU190" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -41412,6 +42556,12 @@
           <t>2-s2.0-84907504639</t>
         </is>
       </c>
+      <c r="BT191" t="n">
+        <v>1984</v>
+      </c>
+      <c r="BU191" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -41623,6 +42773,12 @@
           <t>2-s2.0-84908408965</t>
         </is>
       </c>
+      <c r="BT192" t="n">
+        <v>2319</v>
+      </c>
+      <c r="BU192" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -41838,6 +42994,12 @@
           <t>2-s2.0-84907569266</t>
         </is>
       </c>
+      <c r="BT193" t="n">
+        <v>753</v>
+      </c>
+      <c r="BU193" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -42043,6 +43205,12 @@
           <t>2-s2.0-84937249979</t>
         </is>
       </c>
+      <c r="BT194" t="n">
+        <v>715</v>
+      </c>
+      <c r="BU194" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -42248,6 +43416,12 @@
           <t>2-s2.0-84940172259</t>
         </is>
       </c>
+      <c r="BT195" t="n">
+        <v>1529</v>
+      </c>
+      <c r="BU195" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -42469,6 +43643,12 @@
           <t>2-s2.0-84936817470</t>
         </is>
       </c>
+      <c r="BT196" t="n">
+        <v>557</v>
+      </c>
+      <c r="BU196" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -42674,6 +43854,12 @@
           <t>2-s2.0-84925651647</t>
         </is>
       </c>
+      <c r="BT197" t="n">
+        <v>2101</v>
+      </c>
+      <c r="BU197" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -42893,6 +44079,12 @@
           <t>2-s2.0-84928406117</t>
         </is>
       </c>
+      <c r="BT198" t="n">
+        <v>2250</v>
+      </c>
+      <c r="BU198" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -43106,6 +44298,12 @@
           <t>2-s2.0-84928656005</t>
         </is>
       </c>
+      <c r="BT199" t="n">
+        <v>883</v>
+      </c>
+      <c r="BU199" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -43321,6 +44519,12 @@
           <t>2-s2.0-84923559827</t>
         </is>
       </c>
+      <c r="BT200" t="n">
+        <v>4188</v>
+      </c>
+      <c r="BU200" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -43534,6 +44738,12 @@
           <t>2-s2.0-84923223660</t>
         </is>
       </c>
+      <c r="BT201" t="n">
+        <v>759</v>
+      </c>
+      <c r="BU201" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -43751,6 +44961,12 @@
           <t>2-s2.0-84919712121</t>
         </is>
       </c>
+      <c r="BT202" t="n">
+        <v>906</v>
+      </c>
+      <c r="BU202" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -43960,6 +45176,12 @@
           <t>2-s2.0-84920937944</t>
         </is>
       </c>
+      <c r="BT203" t="n">
+        <v>1866</v>
+      </c>
+      <c r="BU203" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -44173,6 +45395,12 @@
           <t>2-s2.0-84912094893</t>
         </is>
       </c>
+      <c r="BT204" t="n">
+        <v>1298</v>
+      </c>
+      <c r="BU204" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -44378,6 +45606,12 @@
           <t>2-s2.0-84910119995</t>
         </is>
       </c>
+      <c r="BT205" t="n">
+        <v>682</v>
+      </c>
+      <c r="BU205" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -44597,6 +45831,12 @@
           <t>2-s2.0-84907564656</t>
         </is>
       </c>
+      <c r="BT206" t="n">
+        <v>699</v>
+      </c>
+      <c r="BU206" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -44802,6 +46042,12 @@
           <t>2-s2.0-84940192131</t>
         </is>
       </c>
+      <c r="BT207" t="n">
+        <v>1052</v>
+      </c>
+      <c r="BU207" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -45015,6 +46261,12 @@
           <t>2-s2.0-84938846410</t>
         </is>
       </c>
+      <c r="BT208" t="n">
+        <v>1339</v>
+      </c>
+      <c r="BU208" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -45224,6 +46476,12 @@
           <t>2-s2.0-84939433913</t>
         </is>
       </c>
+      <c r="BT209" t="n">
+        <v>1910</v>
+      </c>
+      <c r="BU209" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -45429,6 +46687,12 @@
           <t>2-s2.0-84947438755</t>
         </is>
       </c>
+      <c r="BT210" t="n">
+        <v>492</v>
+      </c>
+      <c r="BU210" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -45650,6 +46914,12 @@
           <t>2-s2.0-84934891731</t>
         </is>
       </c>
+      <c r="BT211" t="n">
+        <v>523</v>
+      </c>
+      <c r="BU211" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -45867,6 +47137,12 @@
           <t>2-s2.0-84930630354</t>
         </is>
       </c>
+      <c r="BT212" t="n">
+        <v>1416</v>
+      </c>
+      <c r="BU212" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -46084,6 +47360,12 @@
           <t>2-s2.0-84928744103</t>
         </is>
       </c>
+      <c r="BT213" t="n">
+        <v>1061</v>
+      </c>
+      <c r="BU213" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -46301,6 +47583,12 @@
           <t>2-s2.0-84922691770</t>
         </is>
       </c>
+      <c r="BT214" t="n">
+        <v>744</v>
+      </c>
+      <c r="BU214" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -46514,6 +47802,12 @@
           <t>2-s2.0-84921441266</t>
         </is>
       </c>
+      <c r="BT215" t="n">
+        <v>1233</v>
+      </c>
+      <c r="BU215" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -46723,6 +48017,12 @@
           <t>2-s2.0-84918782370</t>
         </is>
       </c>
+      <c r="BT216" t="n">
+        <v>1232</v>
+      </c>
+      <c r="BU216" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -46932,6 +48232,12 @@
           <t>2-s2.0-84912072111</t>
         </is>
       </c>
+      <c r="BT217" t="n">
+        <v>1635</v>
+      </c>
+      <c r="BU217" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -47153,6 +48459,12 @@
           <t>2-s2.0-84918807697</t>
         </is>
       </c>
+      <c r="BT218" t="n">
+        <v>911</v>
+      </c>
+      <c r="BU218" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -47365,6 +48677,12 @@
         <is>
           <t>2-s2.0-84913543884</t>
         </is>
+      </c>
+      <c r="BT219" t="n">
+        <v>673</v>
+      </c>
+      <c r="BU219" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="220">
@@ -47567,6 +48885,12 @@
           <t>2-s2.0-84910020964</t>
         </is>
       </c>
+      <c r="BT220" t="n">
+        <v>888</v>
+      </c>
+      <c r="BU220" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -47780,6 +49104,12 @@
           <t>2-s2.0-84908248824</t>
         </is>
       </c>
+      <c r="BT221" t="n">
+        <v>810</v>
+      </c>
+      <c r="BU221" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -47981,6 +49311,12 @@
           <t>2-s2.0-84913580900</t>
         </is>
       </c>
+      <c r="BT222" t="n">
+        <v>839</v>
+      </c>
+      <c r="BU222" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -48194,6 +49530,12 @@
           <t>2-s2.0-84936883032</t>
         </is>
       </c>
+      <c r="BT223" t="n">
+        <v>864</v>
+      </c>
+      <c r="BU223" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -48407,6 +49749,12 @@
           <t>2-s2.0-84929329805</t>
         </is>
       </c>
+      <c r="BT224" t="n">
+        <v>1035</v>
+      </c>
+      <c r="BU224" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -48612,6 +49960,12 @@
           <t>2-s2.0-84935030818</t>
         </is>
       </c>
+      <c r="BT225" t="n">
+        <v>804</v>
+      </c>
+      <c r="BU225" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -48821,6 +50175,12 @@
           <t>2-s2.0-84936772545</t>
         </is>
       </c>
+      <c r="BT226" t="n">
+        <v>784</v>
+      </c>
+      <c r="BU226" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -49034,6 +50394,12 @@
           <t>2-s2.0-84928741612</t>
         </is>
       </c>
+      <c r="BT227" t="n">
+        <v>1064</v>
+      </c>
+      <c r="BU227" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -49247,6 +50613,12 @@
           <t>2-s2.0-84925449069</t>
         </is>
       </c>
+      <c r="BT228" t="n">
+        <v>714</v>
+      </c>
+      <c r="BU228" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -49454,6 +50826,12 @@
           <t>2-s2.0-84922151638</t>
         </is>
       </c>
+      <c r="BT229" t="n">
+        <v>2194</v>
+      </c>
+      <c r="BU229" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -49655,6 +51033,12 @@
           <t>2-s2.0-84908376975</t>
         </is>
       </c>
+      <c r="BT230" t="n">
+        <v>882</v>
+      </c>
+      <c r="BU230" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -49872,6 +51256,12 @@
           <t>2-s2.0-84937239414</t>
         </is>
       </c>
+      <c r="BT231" t="n">
+        <v>1867</v>
+      </c>
+      <c r="BU231" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -50085,6 +51475,12 @@
           <t>2-s2.0-84940208431</t>
         </is>
       </c>
+      <c r="BT232" t="n">
+        <v>1262</v>
+      </c>
+      <c r="BU232" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -50286,6 +51682,12 @@
           <t>2-s2.0-84939556859</t>
         </is>
       </c>
+      <c r="BT233" t="n">
+        <v>587</v>
+      </c>
+      <c r="BU233" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -50499,6 +51901,12 @@
           <t>2-s2.0-84929611124</t>
         </is>
       </c>
+      <c r="BT234" t="n">
+        <v>1040</v>
+      </c>
+      <c r="BU234" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -50712,6 +52120,12 @@
           <t>2-s2.0-84933574492</t>
         </is>
       </c>
+      <c r="BT235" t="n">
+        <v>738</v>
+      </c>
+      <c r="BU235" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -50937,6 +52351,12 @@
           <t>2-s2.0-84923253693</t>
         </is>
       </c>
+      <c r="BT236" t="n">
+        <v>766</v>
+      </c>
+      <c r="BU236" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -51142,6 +52562,12 @@
           <t>2-s2.0-84923241618</t>
         </is>
       </c>
+      <c r="BT237" t="n">
+        <v>1377</v>
+      </c>
+      <c r="BU237" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -51355,6 +52781,12 @@
           <t>2-s2.0-84922565598</t>
         </is>
       </c>
+      <c r="BT238" t="n">
+        <v>657</v>
+      </c>
+      <c r="BU238" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -51560,6 +52992,12 @@
           <t>2-s2.0-84923225730</t>
         </is>
       </c>
+      <c r="BT239" t="n">
+        <v>469</v>
+      </c>
+      <c r="BU239" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -51761,6 +53199,12 @@
           <t>2-s2.0-84929333022</t>
         </is>
       </c>
+      <c r="BT240" t="n">
+        <v>1150</v>
+      </c>
+      <c r="BU240" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -51974,6 +53418,12 @@
           <t>2-s2.0-84921630301</t>
         </is>
       </c>
+      <c r="BT241" t="n">
+        <v>470</v>
+      </c>
+      <c r="BU241" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -52195,6 +53645,12 @@
           <t>2-s2.0-84961364115</t>
         </is>
       </c>
+      <c r="BT242" t="n">
+        <v>1045</v>
+      </c>
+      <c r="BU242" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -52408,6 +53864,12 @@
           <t>2-s2.0-84913604165</t>
         </is>
       </c>
+      <c r="BT243" t="n">
+        <v>775</v>
+      </c>
+      <c r="BU243" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -52621,6 +54083,12 @@
           <t>2-s2.0-84907519967</t>
         </is>
       </c>
+      <c r="BT244" t="n">
+        <v>1083</v>
+      </c>
+      <c r="BU244" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -52834,6 +54302,12 @@
           <t>2-s2.0-84907567430</t>
         </is>
       </c>
+      <c r="BT245" t="n">
+        <v>724</v>
+      </c>
+      <c r="BU245" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -53039,6 +54513,12 @@
           <t>2-s2.0-84940178642</t>
         </is>
       </c>
+      <c r="BT246" t="n">
+        <v>1893</v>
+      </c>
+      <c r="BU246" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -53248,6 +54728,12 @@
           <t>2-s2.0-84940426515</t>
         </is>
       </c>
+      <c r="BT247" t="n">
+        <v>967</v>
+      </c>
+      <c r="BU247" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -53473,6 +54959,12 @@
           <t>2-s2.0-84941567203</t>
         </is>
       </c>
+      <c r="BT248" t="n">
+        <v>603</v>
+      </c>
+      <c r="BU248" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -53694,6 +55186,12 @@
           <t>2-s2.0-84925422841</t>
         </is>
       </c>
+      <c r="BT249" t="n">
+        <v>1351</v>
+      </c>
+      <c r="BU249" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -53907,6 +55405,12 @@
           <t>2-s2.0-84922389368</t>
         </is>
       </c>
+      <c r="BT250" t="n">
+        <v>639</v>
+      </c>
+      <c r="BU250" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -54108,6 +55612,12 @@
           <t>2-s2.0-84921987352</t>
         </is>
       </c>
+      <c r="BT251" t="n">
+        <v>733</v>
+      </c>
+      <c r="BU251" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -54325,6 +55835,12 @@
           <t>2-s2.0-84921328129</t>
         </is>
       </c>
+      <c r="BT252" t="n">
+        <v>574</v>
+      </c>
+      <c r="BU252" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -54534,6 +56050,12 @@
           <t>2-s2.0-84908403344</t>
         </is>
       </c>
+      <c r="BT253" t="n">
+        <v>611</v>
+      </c>
+      <c r="BU253" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -54747,6 +56269,12 @@
           <t>2-s2.0-84955598021</t>
         </is>
       </c>
+      <c r="BT254" t="n">
+        <v>781</v>
+      </c>
+      <c r="BU254" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -54952,6 +56480,12 @@
           <t>2-s2.0-84910127381</t>
         </is>
       </c>
+      <c r="BT255" t="n">
+        <v>671</v>
+      </c>
+      <c r="BU255" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -55165,6 +56699,12 @@
           <t>2-s2.0-84913549322</t>
         </is>
       </c>
+      <c r="BT256" t="n">
+        <v>757</v>
+      </c>
+      <c r="BU256" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -55382,6 +56922,12 @@
           <t>2-s2.0-84939188064</t>
         </is>
       </c>
+      <c r="BT257" t="n">
+        <v>800</v>
+      </c>
+      <c r="BU257" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -55587,6 +57133,12 @@
           <t>2-s2.0-84938322893</t>
         </is>
       </c>
+      <c r="BT258" t="n">
+        <v>1050</v>
+      </c>
+      <c r="BU258" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -55800,6 +57352,12 @@
           <t>2-s2.0-84931261090</t>
         </is>
       </c>
+      <c r="BT259" t="n">
+        <v>387</v>
+      </c>
+      <c r="BU259" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -56013,6 +57571,12 @@
           <t>2-s2.0-84926630688</t>
         </is>
       </c>
+      <c r="BT260" t="n">
+        <v>883</v>
+      </c>
+      <c r="BU260" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -56230,6 +57794,12 @@
           <t>2-s2.0-84925712114</t>
         </is>
       </c>
+      <c r="BT261" t="n">
+        <v>844</v>
+      </c>
+      <c r="BU261" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -56451,6 +58021,12 @@
           <t>2-s2.0-84925595246</t>
         </is>
       </c>
+      <c r="BT262" t="n">
+        <v>528</v>
+      </c>
+      <c r="BU262" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -56668,6 +58244,12 @@
           <t>2-s2.0-84924973012</t>
         </is>
       </c>
+      <c r="BT263" t="n">
+        <v>1787</v>
+      </c>
+      <c r="BU263" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -56873,6 +58455,12 @@
           <t>2-s2.0-84949131410</t>
         </is>
       </c>
+      <c r="BT264" t="n">
+        <v>724</v>
+      </c>
+      <c r="BU264" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -57081,6 +58669,12 @@
         <is>
           <t>2-s2.0-84913602449</t>
         </is>
+      </c>
+      <c r="BT265" t="n">
+        <v>504</v>
+      </c>
+      <c r="BU265" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="266">
@@ -57271,6 +58865,12 @@
           <t>2-s2.0-84913588155</t>
         </is>
       </c>
+      <c r="BT266" t="n">
+        <v>270</v>
+      </c>
+      <c r="BU266" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -57492,6 +59092,12 @@
           <t>2-s2.0-84907527374</t>
         </is>
       </c>
+      <c r="BT267" t="n">
+        <v>664</v>
+      </c>
+      <c r="BU267" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -57713,6 +59319,12 @@
           <t>2-s2.0-84907514684</t>
         </is>
       </c>
+      <c r="BT268" t="n">
+        <v>1049</v>
+      </c>
+      <c r="BU268" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -57926,6 +59538,12 @@
           <t>2-s2.0-84907506426</t>
         </is>
       </c>
+      <c r="BT269" t="n">
+        <v>665</v>
+      </c>
+      <c r="BU269" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -58135,6 +59753,12 @@
           <t>2-s2.0-84907510247</t>
         </is>
       </c>
+      <c r="BT270" t="n">
+        <v>1151</v>
+      </c>
+      <c r="BU270" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -58348,6 +59972,12 @@
           <t>2-s2.0-84939159281</t>
         </is>
       </c>
+      <c r="BT271" t="n">
+        <v>583</v>
+      </c>
+      <c r="BU271" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -58565,6 +60195,12 @@
           <t>2-s2.0-84922572262</t>
         </is>
       </c>
+      <c r="BT272" t="n">
+        <v>671</v>
+      </c>
+      <c r="BU272" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -58766,6 +60402,12 @@
           <t>2-s2.0-84922225341</t>
         </is>
       </c>
+      <c r="BT273" t="n">
+        <v>681</v>
+      </c>
+      <c r="BU273" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
